--- a/Data/processedData/soil_dz_missing_unique.xlsx
+++ b/Data/processedData/soil_dz_missing_unique.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>dz_PSurf_autumn</t>
+          <t>PSurf_autumn</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -469,7 +469,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>dz_PSurf_spring</t>
+          <t>PSurf_spring</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -485,7 +485,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>dz_PSurf_summer</t>
+          <t>PSurf_summer</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -501,7 +501,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dz_PSurf_winter</t>
+          <t>PSurf_winter</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -517,7 +517,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dz_Qair_autumn</t>
+          <t>Qair_autumn</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -533,7 +533,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>dz_Qair_spring</t>
+          <t>Qair_spring</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -549,7 +549,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dz_Qair_summer</t>
+          <t>Qair_summer</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -565,7 +565,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dz_Qair_winter</t>
+          <t>Qair_winter</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dz_Rainf_autumn</t>
+          <t>Rainf_autumn</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,7 +597,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dz_Rainf_spring</t>
+          <t>Rainf_spring</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -613,7 +613,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>dz_Rainf_summer</t>
+          <t>Rainf_summer</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>dz_Rainf_winter</t>
+          <t>Rainf_winter</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -645,7 +645,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>dz_Snowf_autumn</t>
+          <t>Snowf_autumn</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -661,7 +661,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>dz_Snowf_spring</t>
+          <t>Snowf_spring</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -677,7 +677,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>dz_Snowf_summer</t>
+          <t>Snowf_summer</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -693,7 +693,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>dz_Snowf_winter</t>
+          <t>Snowf_winter</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -709,7 +709,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>dz_Tair_autumn</t>
+          <t>Tair_autumn</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -725,7 +725,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>dz_Tair_spring</t>
+          <t>Tair_spring</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -741,7 +741,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>dz_Tair_summer</t>
+          <t>Tair_summer</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -757,7 +757,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>dz_Tair_winter</t>
+          <t>Tair_winter</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -773,7 +773,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>dz_Wind_autumn</t>
+          <t>Wind_autumn</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -789,7 +789,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>dz_Wind_spring</t>
+          <t>Wind_spring</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -805,7 +805,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>dz_Wind_summer</t>
+          <t>Wind_summer</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -821,7 +821,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>dz_Wind_winter</t>
+          <t>Wind_winter</t>
         </is>
       </c>
       <c r="B25" t="n">
